--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2188.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2188.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.059732184584938</v>
+        <v>1.120266318321228</v>
       </c>
       <c r="B1">
-        <v>1.871418752698142</v>
+        <v>1.705551743507385</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.978481292724609</v>
       </c>
       <c r="D1">
-        <v>1.97243413101188</v>
+        <v>2.712957859039307</v>
       </c>
       <c r="E1">
-        <v>0.9848762655440002</v>
+        <v>1.460768103599548</v>
       </c>
     </row>
   </sheetData>
